--- a/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -9427,13 +9427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55666</v>
+        <v>55667</v>
       </c>
       <c r="D177" t="n">
         <v>5882</v>
       </c>
       <c r="E177" t="n">
-        <v>356304097</v>
+        <v>356358633</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>6011</v>
+        <v>6012</v>
       </c>
       <c r="D697" t="n">
         <v>1238</v>
       </c>
       <c r="E697" t="n">
-        <v>12081251</v>
+        <v>12096389</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17558</v>
+        <v>17559</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38629155</v>
+        <v>38636494</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19726</v>
+        <v>19729</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56630010</v>
+        <v>56645610</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36610,13 +36610,13 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="D710" t="n">
         <v>1013</v>
       </c>
       <c r="E710" t="n">
-        <v>3902663</v>
+        <v>3903857</v>
       </c>
       <c r="F710" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4603</v>
+        <v>4606</v>
       </c>
       <c r="D711" t="n">
         <v>509</v>
       </c>
       <c r="E711" t="n">
-        <v>13149372</v>
+        <v>13159157</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>5644</v>
+        <v>5646</v>
       </c>
       <c r="D712" t="n">
         <v>1176</v>
       </c>
       <c r="E712" t="n">
-        <v>8176193</v>
+        <v>8180829</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17178152</v>
+        <v>17181109</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -37375,13 +37375,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="D725" t="n">
         <v>409</v>
       </c>
       <c r="E725" t="n">
-        <v>9285782</v>
+        <v>9344392</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>78166</v>
+        <v>78168</v>
       </c>
       <c r="D836" t="n">
         <v>8364</v>
       </c>
       <c r="E836" t="n">
-        <v>184380756</v>
+        <v>184744920</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182305</v>
+        <v>182312</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649201885</v>
+        <v>1649257508</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60084</v>
+        <v>60088</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>289439773</v>
+        <v>289861253</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183954</v>
+        <v>183958</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554474628</v>
+        <v>554484815</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34666</v>
+        <v>34667</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70111610</v>
+        <v>70114442</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115019</v>
+        <v>115021</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418921071</v>
+        <v>418931669</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48566</v>
+        <v>48568</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133212164</v>
+        <v>133220497</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40899</v>
+        <v>40900</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>166014422</v>
+        <v>166033805</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127512</v>
+        <v>127513</v>
       </c>
       <c r="D887" t="n">
         <v>13776</v>
       </c>
       <c r="E887" t="n">
-        <v>277488428</v>
+        <v>277493378</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -59815,13 +59815,13 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>5167</v>
+        <v>5171</v>
       </c>
       <c r="D1165" t="n">
         <v>1964</v>
       </c>
       <c r="E1165" t="n">
-        <v>8122859</v>
+        <v>8128859</v>
       </c>
       <c r="F1165" t="inlineStr">
         <is>
